--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value540.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value540.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.122965154623041</v>
+        <v>1.472488522529602</v>
       </c>
       <c r="B1">
-        <v>1.115467601927718</v>
+        <v>1.967365622520447</v>
       </c>
       <c r="C1">
-        <v>1.154518960601645</v>
+        <v>2.221557140350342</v>
       </c>
       <c r="D1">
-        <v>1.542830116206413</v>
+        <v>2.521106481552124</v>
       </c>
       <c r="E1">
-        <v>2.632925456786722</v>
+        <v>3.101007699966431</v>
       </c>
     </row>
   </sheetData>
